--- a/SchedulingData/dynamic11/pso/scheduling2_16.xlsx
+++ b/SchedulingData/dynamic11/pso/scheduling2_16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>222.48</v>
+        <v>235.92</v>
       </c>
       <c r="D2" t="n">
-        <v>271.96</v>
+        <v>268.24</v>
       </c>
       <c r="E2" t="n">
-        <v>11.004</v>
+        <v>13.356</v>
       </c>
     </row>
     <row r="3">
@@ -485,36 +485,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>228.72</v>
+        <v>268.24</v>
       </c>
       <c r="D3" t="n">
-        <v>284.62</v>
+        <v>311.78</v>
       </c>
       <c r="E3" t="n">
-        <v>12.728</v>
+        <v>11.112</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>284.62</v>
+        <v>219.54</v>
       </c>
       <c r="D4" t="n">
-        <v>336.82</v>
+        <v>273.28</v>
       </c>
       <c r="E4" t="n">
-        <v>10.608</v>
+        <v>9.912000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -523,17 +523,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>206.04</v>
+        <v>204.26</v>
       </c>
       <c r="D5" t="n">
-        <v>267.74</v>
+        <v>266.48</v>
       </c>
       <c r="E5" t="n">
-        <v>11.416</v>
+        <v>12.392</v>
       </c>
     </row>
     <row r="6">
@@ -542,93 +542,93 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>208.86</v>
+        <v>222.38</v>
       </c>
       <c r="D6" t="n">
-        <v>295.74</v>
+        <v>268.54</v>
       </c>
       <c r="E6" t="n">
-        <v>12.536</v>
+        <v>11.836</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>271.96</v>
+        <v>266.48</v>
       </c>
       <c r="D7" t="n">
-        <v>328.88</v>
+        <v>334.68</v>
       </c>
       <c r="E7" t="n">
-        <v>8.412000000000001</v>
+        <v>8.672000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>267.74</v>
+        <v>208.12</v>
       </c>
       <c r="D8" t="n">
-        <v>320.54</v>
+        <v>253.12</v>
       </c>
       <c r="E8" t="n">
-        <v>9.256</v>
+        <v>15.708</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>328.88</v>
+        <v>273.28</v>
       </c>
       <c r="D9" t="n">
-        <v>390.9</v>
+        <v>340.08</v>
       </c>
       <c r="E9" t="n">
-        <v>5.82</v>
+        <v>6.832</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>295.74</v>
+        <v>240.94</v>
       </c>
       <c r="D10" t="n">
-        <v>354.92</v>
+        <v>322.24</v>
       </c>
       <c r="E10" t="n">
-        <v>9.728</v>
+        <v>12.436</v>
       </c>
     </row>
     <row r="11">
@@ -637,261 +637,261 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>253.34</v>
+        <v>253.12</v>
       </c>
       <c r="D11" t="n">
-        <v>319.84</v>
+        <v>325.76</v>
       </c>
       <c r="E11" t="n">
-        <v>14.496</v>
+        <v>13.024</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>320.54</v>
+        <v>322.24</v>
       </c>
       <c r="D12" t="n">
-        <v>359.34</v>
+        <v>394.92</v>
       </c>
       <c r="E12" t="n">
-        <v>6.016</v>
+        <v>9.268000000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>390.9</v>
+        <v>334.68</v>
       </c>
       <c r="D13" t="n">
-        <v>458.44</v>
+        <v>386.12</v>
       </c>
       <c r="E13" t="n">
-        <v>3.136</v>
+        <v>6.128</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>319.84</v>
+        <v>311.78</v>
       </c>
       <c r="D14" t="n">
-        <v>384.44</v>
+        <v>355.54</v>
       </c>
       <c r="E14" t="n">
-        <v>11.636</v>
+        <v>8.356</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>257.48</v>
+        <v>268.54</v>
       </c>
       <c r="D15" t="n">
-        <v>304.48</v>
+        <v>307.92</v>
       </c>
       <c r="E15" t="n">
-        <v>10.192</v>
+        <v>9.028</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>336.82</v>
+        <v>394.92</v>
       </c>
       <c r="D16" t="n">
-        <v>387.68</v>
+        <v>424.2</v>
       </c>
       <c r="E16" t="n">
-        <v>7.632</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>304.48</v>
+        <v>424.2</v>
       </c>
       <c r="D17" t="n">
-        <v>347.28</v>
+        <v>488.4</v>
       </c>
       <c r="E17" t="n">
-        <v>7.552</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>354.92</v>
+        <v>355.54</v>
       </c>
       <c r="D18" t="n">
-        <v>397.62</v>
+        <v>415.02</v>
       </c>
       <c r="E18" t="n">
-        <v>7.568</v>
+        <v>5.548</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>384.44</v>
+        <v>307.92</v>
       </c>
       <c r="D19" t="n">
-        <v>433.3</v>
+        <v>374.94</v>
       </c>
       <c r="E19" t="n">
-        <v>8.880000000000001</v>
+        <v>6.436</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>387.68</v>
+        <v>386.12</v>
       </c>
       <c r="D20" t="n">
-        <v>432.48</v>
+        <v>428.72</v>
       </c>
       <c r="E20" t="n">
-        <v>4.772</v>
+        <v>3.488</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>397.62</v>
+        <v>488.4</v>
       </c>
       <c r="D21" t="n">
-        <v>456.72</v>
+        <v>528.5599999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>4.268</v>
+        <v>1.304</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>347.28</v>
+        <v>528.5599999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>392.34</v>
+        <v>622.55</v>
       </c>
       <c r="E22" t="n">
-        <v>5.176</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>458.44</v>
+        <v>428.72</v>
       </c>
       <c r="D23" t="n">
-        <v>518.3</v>
+        <v>466.48</v>
       </c>
       <c r="E23" t="n">
-        <v>0.76</v>
+        <v>0.352</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>518.3</v>
+        <v>466.48</v>
       </c>
       <c r="D24" t="n">
-        <v>598.48</v>
+        <v>562.1799999999999</v>
       </c>
       <c r="E24" t="n">
         <v>30</v>
@@ -903,36 +903,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>432.48</v>
+        <v>415.02</v>
       </c>
       <c r="D25" t="n">
-        <v>469.8</v>
+        <v>478.52</v>
       </c>
       <c r="E25" t="n">
-        <v>2.18</v>
+        <v>2.308</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>433.3</v>
+        <v>340.08</v>
       </c>
       <c r="D26" t="n">
-        <v>506.5</v>
+        <v>388.78</v>
       </c>
       <c r="E26" t="n">
-        <v>5.64</v>
+        <v>3.592</v>
       </c>
     </row>
     <row r="27">
@@ -941,17 +941,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>392.34</v>
+        <v>388.78</v>
       </c>
       <c r="D27" t="n">
-        <v>475.24</v>
+        <v>434.08</v>
       </c>
       <c r="E27" t="n">
-        <v>1.456</v>
+        <v>1.172</v>
       </c>
     </row>
     <row r="28">
@@ -960,14 +960,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>475.24</v>
+        <v>434.08</v>
       </c>
       <c r="D28" t="n">
-        <v>539.33</v>
+        <v>528.34</v>
       </c>
       <c r="E28" t="n">
         <v>30</v>
@@ -975,78 +975,78 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>469.8</v>
+        <v>325.76</v>
       </c>
       <c r="D29" t="n">
-        <v>547.24</v>
+        <v>387.26</v>
       </c>
       <c r="E29" t="n">
-        <v>30</v>
+        <v>10.944</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>547.24</v>
+        <v>374.94</v>
       </c>
       <c r="D30" t="n">
-        <v>604.9400000000001</v>
+        <v>417.94</v>
       </c>
       <c r="E30" t="n">
-        <v>26.92</v>
+        <v>4.276</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>604.9400000000001</v>
+        <v>417.94</v>
       </c>
       <c r="D31" t="n">
-        <v>673.38</v>
+        <v>457.84</v>
       </c>
       <c r="E31" t="n">
-        <v>24.676</v>
+        <v>1.416</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>506.5</v>
+        <v>457.84</v>
       </c>
       <c r="D32" t="n">
-        <v>581.8</v>
+        <v>551.41</v>
       </c>
       <c r="E32" t="n">
-        <v>3.22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
@@ -1055,14 +1055,14 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>539.33</v>
+        <v>528.34</v>
       </c>
       <c r="D33" t="n">
-        <v>599.6900000000001</v>
+        <v>573.8</v>
       </c>
       <c r="E33" t="n">
         <v>27.624</v>
@@ -1074,207 +1074,226 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>456.72</v>
+        <v>551.41</v>
       </c>
       <c r="D34" t="n">
-        <v>515.12</v>
+        <v>589.51</v>
       </c>
       <c r="E34" t="n">
-        <v>1.028</v>
+        <v>27.88</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>515.12</v>
+        <v>622.55</v>
       </c>
       <c r="D35" t="n">
-        <v>580.0599999999999</v>
+        <v>680.0700000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>30</v>
+        <v>27.408</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>598.48</v>
+        <v>387.26</v>
       </c>
       <c r="D36" t="n">
-        <v>660.52</v>
+        <v>445.26</v>
       </c>
       <c r="E36" t="n">
-        <v>27.456</v>
+        <v>8.784000000000001</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>581.8</v>
+        <v>562.1799999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>621.1799999999999</v>
+        <v>631.04</v>
       </c>
       <c r="E37" t="n">
-        <v>0.412</v>
+        <v>27.244</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>621.1799999999999</v>
+        <v>573.8</v>
       </c>
       <c r="D38" t="n">
-        <v>712.0599999999999</v>
+        <v>613.7</v>
       </c>
       <c r="E38" t="n">
-        <v>30</v>
+        <v>24.764</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>599.6900000000001</v>
+        <v>445.26</v>
       </c>
       <c r="D39" t="n">
-        <v>651.59</v>
+        <v>485.42</v>
       </c>
       <c r="E39" t="n">
-        <v>25.544</v>
+        <v>6.408</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>359.34</v>
+        <v>478.52</v>
       </c>
       <c r="D40" t="n">
-        <v>417</v>
+        <v>540.9</v>
       </c>
       <c r="E40" t="n">
-        <v>2.88</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>651.59</v>
+        <v>540.9</v>
       </c>
       <c r="D41" t="n">
-        <v>700.35</v>
+        <v>593.6</v>
       </c>
       <c r="E41" t="n">
-        <v>22.788</v>
+        <v>26.92</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>417</v>
+        <v>593.6</v>
       </c>
       <c r="D42" t="n">
-        <v>454.1</v>
+        <v>647.98</v>
       </c>
       <c r="E42" t="n">
-        <v>0.8</v>
+        <v>24.112</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>454.1</v>
+        <v>485.42</v>
       </c>
       <c r="D43" t="n">
-        <v>563.8</v>
+        <v>568.62</v>
       </c>
       <c r="E43" t="n">
-        <v>30</v>
+        <v>3.168</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>580.0599999999999</v>
+        <v>568.62</v>
       </c>
       <c r="D44" t="n">
-        <v>649.34</v>
+        <v>605.8200000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>27.712</v>
+        <v>1.088</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>4</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>depot1</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>605.8200000000001</v>
+      </c>
+      <c r="D45" t="n">
+        <v>675.54</v>
+      </c>
+      <c r="E45" t="n">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
